--- a/Book.xlsx
+++ b/Book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adityas\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adityas\Desktop\excel\excel-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>accountNo</t>
   </si>
@@ -101,6 +101,18 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>ACC987654321</t>
+  </si>
+  <si>
+    <t>AliceJohnson</t>
+  </si>
+  <si>
+    <t>ACC123456789</t>
+  </si>
+  <si>
+    <t>BobSmith</t>
   </si>
 </sst>
 </file>
@@ -154,12 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,6 +599,46 @@
         <v>45606</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1112233444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
